--- a/prueba progra.xlsx
+++ b/prueba progra.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Camila\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Camila\source\repos\Recursion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CFCB2-86EF-4BBB-BE1A-2C08615542E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B508F9-64FE-4709-9949-5750B9967285}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{3B15F665-4677-4684-8B32-FC6DCA33832F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>Venta</t>
   </si>
@@ -171,31 +171,22 @@
     <t>n = 3</t>
   </si>
   <si>
-    <t>salto 6</t>
-  </si>
-  <si>
-    <t>fin</t>
-  </si>
-  <si>
-    <t>r = 6</t>
-  </si>
-  <si>
-    <t>r=4</t>
-  </si>
-  <si>
-    <t>n = 5</t>
-  </si>
-  <si>
-    <t>ed 5</t>
-  </si>
-  <si>
-    <t>salto 7</t>
-  </si>
-  <si>
-    <t>salto 8</t>
-  </si>
-  <si>
-    <t>salto 9</t>
+    <t>n = 1</t>
+  </si>
+  <si>
+    <t>r=2</t>
+  </si>
+  <si>
+    <t>r=1</t>
+  </si>
+  <si>
+    <t>r=3</t>
+  </si>
+  <si>
+    <t>r = 5</t>
+  </si>
+  <si>
+    <t>n = 2</t>
   </si>
 </sst>
 </file>
@@ -251,11 +242,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,11 +575,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -937,25 +927,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35C07D5-1918-4FD4-A48C-E0A49AACD5FD}">
-  <dimension ref="A3:G34"/>
+  <dimension ref="A3:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -971,11 +961,8 @@
       <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -992,7 +979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1006,7 +993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1020,117 +1007,115 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -1138,148 +1123,20 @@
       <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
         <v>41</v>
       </c>
     </row>
